--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IW-installatiesweg.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IW-installatiesweg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E10B063B-C125-44A9-B2E2-5B0DE7CB5614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E8A34F6-4DD5-48C5-A151-A4A1AE9872E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7E777679-5BA6-46C3-9737-6067E3B8F598}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9383384B-D845-4C14-A7A0-0CBC87795D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-IW-install" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="101">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -271,6 +271,9 @@
     <t>TELECOM</t>
   </si>
   <si>
+    <t>VRI_DETECTIE_LUS</t>
+  </si>
+  <si>
     <t>VRI_DETECTIE_PASSIEF</t>
   </si>
   <si>
@@ -320,9 +323,6 @@
   </si>
   <si>
     <t>V-IW-SIGNAAL_230V</t>
-  </si>
-  <si>
-    <t>VRI_DETECTIE_LUS</t>
   </si>
   <si>
     <t>VRI_DETECTIE_LUS_VIRTUEEL</t>
@@ -1185,10 +1185,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45A7008-08A6-4FC5-A92C-1C4B0FE5BE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0BFB4D-5495-4465-B160-6D90F8158174}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R22" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="A1:AJ1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2638,7 +2640,7 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>38</v>
@@ -2708,6 +2710,27 @@
       </c>
       <c r="AA15" t="s">
         <v>41</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15">
+        <v>170</v>
+      </c>
+      <c r="AD15">
+        <v>172</v>
+      </c>
+      <c r="AE15">
+        <v>170</v>
+      </c>
+      <c r="AF15">
+        <v>170</v>
+      </c>
+      <c r="AG15">
+        <v>253</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.35">
@@ -2786,13 +2809,34 @@
       <c r="AA16" t="s">
         <v>41</v>
       </c>
+      <c r="AB16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC16">
+        <v>170</v>
+      </c>
+      <c r="AD16">
+        <v>172</v>
+      </c>
+      <c r="AE16">
+        <v>170</v>
+      </c>
+      <c r="AF16">
+        <v>170</v>
+      </c>
+      <c r="AG16">
+        <v>253</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -3407,7 +3451,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
@@ -3434,7 +3478,7 @@
         <v>253</v>
       </c>
       <c r="M23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23" t="s">
         <v>42</v>
@@ -3455,7 +3499,7 @@
         <v>253</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U23" t="s">
         <v>42</v>
@@ -3476,7 +3520,7 @@
         <v>253</v>
       </c>
       <c r="AA23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="s">
         <v>42</v>
@@ -3497,7 +3541,7 @@
         <v>253</v>
       </c>
       <c r="AH23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
@@ -3505,7 +3549,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
@@ -3532,7 +3576,7 @@
         <v>253</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N24" t="s">
         <v>42</v>
@@ -3553,7 +3597,7 @@
         <v>253</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U24" t="s">
         <v>42</v>
@@ -3574,7 +3618,7 @@
         <v>253</v>
       </c>
       <c r="AA24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB24" t="s">
         <v>42</v>
@@ -3595,7 +3639,7 @@
         <v>253</v>
       </c>
       <c r="AH24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
@@ -3603,7 +3647,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -3630,7 +3674,7 @@
         <v>253</v>
       </c>
       <c r="M25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N25" t="s">
         <v>42</v>
@@ -3651,7 +3695,7 @@
         <v>253</v>
       </c>
       <c r="T25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U25" t="s">
         <v>42</v>
@@ -3672,7 +3716,7 @@
         <v>253</v>
       </c>
       <c r="AA25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB25" t="s">
         <v>42</v>
@@ -3693,7 +3737,7 @@
         <v>253</v>
       </c>
       <c r="AH25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
@@ -3903,7 +3947,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -3930,7 +3974,7 @@
         <v>253</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N28" t="s">
         <v>42</v>
@@ -3951,7 +3995,7 @@
         <v>253</v>
       </c>
       <c r="T28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U28" t="s">
         <v>42</v>
@@ -3972,7 +4016,7 @@
         <v>253</v>
       </c>
       <c r="AA28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB28" t="s">
         <v>42</v>
@@ -3993,7 +4037,7 @@
         <v>253</v>
       </c>
       <c r="AH28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
@@ -4001,7 +4045,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -4028,7 +4072,7 @@
         <v>253</v>
       </c>
       <c r="M29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N29" t="s">
         <v>42</v>
@@ -4049,7 +4093,7 @@
         <v>253</v>
       </c>
       <c r="T29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U29" t="s">
         <v>42</v>
@@ -4070,7 +4114,7 @@
         <v>253</v>
       </c>
       <c r="AA29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="s">
         <v>42</v>
@@ -4091,7 +4135,7 @@
         <v>253</v>
       </c>
       <c r="AH29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
@@ -4099,7 +4143,7 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
@@ -4704,7 +4748,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ35" xr:uid="{C45A7008-08A6-4FC5-A92C-1C4B0FE5BE98}">
+  <autoFilter ref="A1:AJ35" xr:uid="{4C0BFB4D-5495-4465-B160-6D90F8158174}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ35">
       <sortCondition ref="C1:C35"/>
     </sortState>

--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IW-installatiesweg.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-IW-installatiesweg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4E8A34F6-4DD5-48C5-A151-A4A1AE9872E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD06F7B-E4E2-4F2B-A393-CD55A5D35D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9383384B-D845-4C14-A7A0-0CBC87795D2F}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{9383384B-D845-4C14-A7A0-0CBC87795D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-IW-install" sheetId="1" r:id="rId1"/>
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0BFB4D-5495-4465-B160-6D90F8158174}">
   <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R22" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="A1:AJ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
